--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3750.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3750.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.245814600577558</v>
+        <v>0.7571863532066345</v>
       </c>
       <c r="B1">
-        <v>2.538374182164655</v>
+        <v>1.230912685394287</v>
       </c>
       <c r="C1">
-        <v>4.477055631784217</v>
+        <v>3.679623365402222</v>
       </c>
       <c r="D1">
-        <v>3.206391326127997</v>
+        <v>2.100664854049683</v>
       </c>
       <c r="E1">
-        <v>1.156145676386223</v>
+        <v>0.5465704202651978</v>
       </c>
     </row>
   </sheetData>
